--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF2DA1-7D4A-4701-9FAA-1549B8EB4467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A2805C-094D-4442-8836-C6C5698265CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="adelanto" sheetId="1" r:id="rId1"/>
+    <sheet name="ACREDITACION " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adelanto!$A$1:$AI$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ACREDITACION '!$A$1:$AI$94</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -239,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>Nombre y Apellido</t>
   </si>
@@ -362,9 +367,6 @@
     <t>ALFONSO B. WANDA</t>
   </si>
   <si>
-    <t>ALVAREZ NATALIA</t>
-  </si>
-  <si>
     <t>AMED NESTOR ORLANDO</t>
   </si>
   <si>
@@ -392,9 +394,6 @@
     <t>BERNAL Y. LUIS ADRIAN</t>
   </si>
   <si>
-    <t>BRINGAS ALEJANDRO</t>
-  </si>
-  <si>
     <t>CAMINOS JOSE MARIA</t>
   </si>
   <si>
@@ -410,6 +409,9 @@
     <t>CEBADERA CLARISA</t>
   </si>
   <si>
+    <t>CEBALLOS LAUTARO</t>
+  </si>
+  <si>
     <t>CHAVEZ SERGIO ALBERTO</t>
   </si>
   <si>
@@ -434,9 +436,6 @@
     <t>FALVO GABRIEL SANTO</t>
   </si>
   <si>
-    <t>FERNANDEZ FRANCO</t>
-  </si>
-  <si>
     <t>FERNANDEZ PELETAY NATALIA</t>
   </si>
   <si>
@@ -455,6 +454,9 @@
     <t>GAGGIOLI RICARDO DIEGO</t>
   </si>
   <si>
+    <t>GALLARDO SEBASTIAN</t>
+  </si>
+  <si>
     <t>GARCIA IVANA PATRICIA</t>
   </si>
   <si>
@@ -551,6 +553,9 @@
     <t>PAEZ NATALIA ANALIA</t>
   </si>
   <si>
+    <t>PAEZ PATRICIA BELEN</t>
+  </si>
+  <si>
     <t>PARDO MAURICIO GABRIEL</t>
   </si>
   <si>
@@ -560,10 +565,7 @@
     <t>PEREZ RICARDO ALBERTO</t>
   </si>
   <si>
-    <t>PIAZZOLI DANIELA</t>
-  </si>
-  <si>
-    <t>PONCE MIRIAM DANIELA</t>
+    <t>PIOZZOLI DANIELA</t>
   </si>
   <si>
     <t>QUILODRAN CARLOS</t>
@@ -572,6 +574,9 @@
     <t>QUIROGA DANIELA</t>
   </si>
   <si>
+    <t>REPETTO ANTONIO</t>
+  </si>
+  <si>
     <t>RIOS DIEGO MIGUEL</t>
   </si>
   <si>
@@ -602,7 +607,7 @@
     <t>SANCHEZ VANESA</t>
   </si>
   <si>
-    <t>SINISCALCHI MIGUEL ADRIAN</t>
+    <t>SINISCALCHI MIGUEL</t>
   </si>
   <si>
     <t>SUANES VANINA</t>
@@ -627,9 +632,6 @@
   </si>
   <si>
     <t>ZUÑIGA CRISTIAN</t>
-  </si>
-  <si>
-    <t>AGUILERA SERGIO</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -646,7 +648,7 @@
     <numFmt numFmtId="167" formatCode="[$$-2C0A]\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,22 +705,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +767,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -833,7 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,9 +874,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,8 +917,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,15 +938,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -944,7 +948,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -957,9 +961,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -967,44 +971,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1034,12 +1038,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1069,7 +1073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1078,213 +1082,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI99"/>
+  <dimension ref="A1:AJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="AG99" sqref="AG99"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="AK93" sqref="AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="41" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="41" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24.5703125" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="22.42578125" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18.85546875" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="24" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="24.28515625" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="21.28515625" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="20.42578125" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="19" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="22" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="24.28515625" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="18.85546875" style="42" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="21.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="19.140625" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24.5703125" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="22.42578125" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.85546875" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="24" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="24.28515625" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="21.28515625" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="20.42578125" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="19" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="22" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="24.28515625" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="18.85546875" style="48" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="21.85546875" style="48" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" style="29" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="17.85546875" style="42" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="17.85546875" style="48" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="41" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="43" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" style="43" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="43" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="17" style="43" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" style="43" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="43" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="43" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="43" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="16.7109375" style="43" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="17" style="43" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="47" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="49" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="49" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="49" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="49" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" style="49" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="49" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="49" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="49" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" style="49" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="17" style="49" customWidth="1"/>
     <col min="34" max="34" width="15.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="17.7109375" style="43" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="49" hidden="1" customWidth="1"/>
     <col min="36" max="226" width="11.42578125" style="29" customWidth="1"/>
     <col min="227" max="227" width="0.28515625" style="29" customWidth="1"/>
     <col min="228" max="228" width="32.28515625" style="29" customWidth="1"/>
@@ -3370,7 +3348,7 @@
     <col min="16357" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3477,17 +3455,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="45">
-        <v>44971</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17">
         <v>42505349</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -3508,46 +3484,50 @@
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
       <c r="X2" s="24">
-        <f t="shared" ref="X2:X66" si="0">((E2/200)*(1.5*V2))</f>
+        <f t="shared" ref="X2:X65" si="0">((E2/200)*(1.5*V2))</f>
         <v>0</v>
       </c>
       <c r="Y2" s="24">
-        <f t="shared" ref="Y2:Y66" si="1">((E2/200)*(2*W2))</f>
+        <f t="shared" ref="Y2:Y65" si="1">((E2/200)*(2*W2))</f>
         <v>0</v>
       </c>
       <c r="Z2" s="25">
-        <f t="shared" ref="Z2:Z66" si="2">X2+Y2</f>
+        <f t="shared" ref="Z2:Z65" si="2">X2+Y2</f>
         <v>0</v>
       </c>
       <c r="AA2" s="26"/>
       <c r="AB2" s="26"/>
       <c r="AC2" s="26">
-        <f t="shared" ref="AC2:AC66" si="3">IF(AB2-(AA2+Z2)&gt;=0,(AB2-(AA2+Z2)),0)</f>
+        <f t="shared" ref="AC2:AC65" si="3">IF(AB2-(AA2+Z2)&gt;=0,(AB2-(AA2+Z2)),0)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="25"/>
       <c r="AE2" s="27"/>
       <c r="AF2" s="25">
-        <f t="shared" ref="AF2:AF66" si="4">(R2+S2+T2+U2)-(AC2+AD2+AE2)</f>
+        <f t="shared" ref="AF2:AF65" si="4">(R2+S2+T2+U2)-(AC2+AD2+AE2)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="25"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+        <v>150000</v>
+      </c>
+      <c r="AH2" s="28">
+        <f t="shared" ref="AH2:AH65" si="5">AF2-AG2</f>
+        <v>-150000</v>
+      </c>
+      <c r="AI2" s="25">
+        <f t="shared" ref="AI2:AI65" si="6">IF((Z2+AA2-AB2)&gt;=0,(Z2+AA2-AB2),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="45">
-        <v>43360</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17">
         <v>25540701</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -3592,22 +3572,26 @@
         <v>0</v>
       </c>
       <c r="AG3" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="25"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+        <v>100000</v>
+      </c>
+      <c r="AH3" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI3" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="45">
-        <v>45282</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17">
         <v>37137835</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -3652,20 +3636,26 @@
         <v>0</v>
       </c>
       <c r="AG4" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="25"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46">
-        <v>35153584</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>200000</v>
+      </c>
+      <c r="AH4" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI4" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17">
+        <v>12416256</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -3682,33 +3672,52 @@
       <c r="R5" s="19"/>
       <c r="S5" s="20"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="22"/>
+      <c r="U5" s="30"/>
       <c r="V5" s="23"/>
       <c r="W5" s="32"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="25"/>
+      <c r="X5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AA5" s="26"/>
       <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="25"/>
+      <c r="AC5" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="25"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="45">
-        <v>45385</v>
-      </c>
-      <c r="C6" s="46">
-        <v>30836266</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="AH5" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17">
+        <v>37614078</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -3725,9 +3734,9 @@
       <c r="R6" s="19"/>
       <c r="S6" s="20"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="30"/>
+      <c r="U6" s="34"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="32"/>
+      <c r="W6" s="23"/>
       <c r="X6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3746,27 +3755,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="33"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="31"/>
       <c r="AF6" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="25"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="45">
-        <v>42882</v>
-      </c>
-      <c r="C7" s="46">
-        <v>12416256</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="AG6" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH6" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI6" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17">
+        <v>17949384</v>
+      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -3783,7 +3798,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="20"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="34"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
       <c r="X7" s="24">
@@ -3805,26 +3820,30 @@
         <v>0</v>
       </c>
       <c r="AD7" s="25"/>
-      <c r="AE7" s="31"/>
+      <c r="AE7" s="27"/>
       <c r="AF7" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG7" s="24"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="25"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="45">
-        <v>45275</v>
-      </c>
-      <c r="C8" s="46">
-        <v>37614078</v>
-      </c>
-      <c r="D8" s="16"/>
+      <c r="AH7" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17">
+        <v>25423490</v>
+      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -3841,9 +3860,9 @@
       <c r="R8" s="19"/>
       <c r="S8" s="20"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="22"/>
+      <c r="U8" s="30"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="W8" s="35"/>
       <c r="X8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3862,29 +3881,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="25"/>
+      <c r="AD8" s="31"/>
       <c r="AE8" s="27"/>
       <c r="AF8" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG8" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="25"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="45">
-        <v>44470</v>
-      </c>
-      <c r="C9" s="46">
-        <v>17949384</v>
-      </c>
-      <c r="D9" s="16"/>
+        <v>100000</v>
+      </c>
+      <c r="AH8" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI8" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
+        <v>40272332</v>
+      </c>
+      <c r="D9" s="18"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -3899,11 +3922,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
+      <c r="S9" s="36"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="30"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="35"/>
+      <c r="W9" s="37"/>
       <c r="X9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3923,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="31"/>
-      <c r="AE9" s="27"/>
+      <c r="AE9" s="31"/>
       <c r="AF9" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3931,20 +3954,24 @@
       <c r="AG9" s="24">
         <v>100000</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="25"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="45">
-        <v>41426</v>
-      </c>
-      <c r="C10" s="46">
-        <v>25423490</v>
-      </c>
-      <c r="D10" s="16"/>
+      <c r="AH9" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI9" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17">
+        <v>21985039</v>
+      </c>
+      <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -3959,11 +3986,11 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="36"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="22"/>
+      <c r="U10" s="21"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="37"/>
+      <c r="W10" s="32"/>
       <c r="X10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3982,29 +4009,36 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
       <c r="AF10" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG10" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="25"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="45">
-        <v>44835</v>
-      </c>
-      <c r="C11" s="46">
-        <v>40272332</v>
-      </c>
-      <c r="D11" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17">
+        <v>36964277</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -4021,9 +4055,9 @@
       <c r="R11" s="19"/>
       <c r="S11" s="20"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
+      <c r="U11" s="30"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="32"/>
+      <c r="W11" s="23"/>
       <c r="X11" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4042,29 +4076,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="25"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="24">
-        <v>125000</v>
-      </c>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="25"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="45">
-        <v>42814</v>
-      </c>
-      <c r="C12" s="46">
-        <v>21985039</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17">
+        <v>33570029</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -4102,8 +4138,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="38"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
       <c r="AF12" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4111,20 +4147,24 @@
       <c r="AG12" s="24">
         <v>50000</v>
       </c>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="25"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C13" s="46">
-        <v>36964277</v>
-      </c>
-      <c r="D13" s="16"/>
+      <c r="AH12" s="28">
+        <f t="shared" si="5"/>
+        <v>-50000</v>
+      </c>
+      <c r="AI12" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17">
+        <v>94596415</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -4141,9 +4181,9 @@
       <c r="R13" s="19"/>
       <c r="S13" s="20"/>
       <c r="T13" s="21"/>
-      <c r="U13" s="30"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="W13" s="32"/>
       <c r="X13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4162,27 +4202,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="31"/>
+      <c r="AD13" s="26"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG13" s="24"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="25"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="45">
-        <v>42564</v>
-      </c>
-      <c r="C14" s="46">
-        <v>33570029</v>
-      </c>
-      <c r="D14" s="16"/>
+      <c r="AH13" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17">
+        <v>41884729</v>
+      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -4201,7 +4245,7 @@
       <c r="T14" s="21"/>
       <c r="U14" s="22"/>
       <c r="V14" s="23"/>
-      <c r="W14" s="32"/>
+      <c r="W14" s="23"/>
       <c r="X14" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4220,29 +4264,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="26"/>
+      <c r="AD14" s="31"/>
       <c r="AE14" s="31"/>
       <c r="AF14" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG14" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="25"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="45">
-        <v>44361</v>
-      </c>
-      <c r="C15" s="46">
-        <v>94596415</v>
-      </c>
-      <c r="D15" s="16"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17">
+        <v>32194919</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -4261,7 +4307,7 @@
       <c r="T15" s="21"/>
       <c r="U15" s="22"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="W15" s="32"/>
       <c r="X15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4280,29 +4326,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="38"/>
       <c r="AF15" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="25"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="45">
-        <v>45385</v>
-      </c>
-      <c r="C16" s="46">
-        <v>36349384</v>
-      </c>
-      <c r="D16" s="16"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17">
+        <v>32169313</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -4321,7 +4369,7 @@
       <c r="T16" s="21"/>
       <c r="U16" s="22"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="32"/>
+      <c r="W16" s="23"/>
       <c r="X16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4340,27 +4388,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="38"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
       <c r="AF16" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG16" s="24"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="25"/>
+      <c r="AH16" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="45">
-        <v>45257</v>
-      </c>
-      <c r="C17" s="46">
-        <v>41884729</v>
-      </c>
-      <c r="D17" s="16"/>
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17">
+        <v>39602991</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -4377,7 +4429,7 @@
       <c r="R17" s="19"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="22"/>
+      <c r="U17" s="30"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
       <c r="X17" s="24">
@@ -4398,27 +4450,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="31"/>
+      <c r="AD17" s="25"/>
       <c r="AE17" s="31"/>
       <c r="AF17" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="25"/>
+      <c r="AG17" s="24">
+        <v>200000</v>
+      </c>
+      <c r="AH17" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI17" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="45">
-        <v>45124</v>
-      </c>
-      <c r="C18" s="46">
-        <v>32194919</v>
-      </c>
-      <c r="D18" s="16"/>
+      <c r="A18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17">
+        <v>25008411</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -4435,9 +4493,9 @@
       <c r="R18" s="19"/>
       <c r="S18" s="20"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="30"/>
+      <c r="U18" s="22"/>
       <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="W18" s="32"/>
       <c r="X18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4456,27 +4514,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="31"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="38"/>
       <c r="AF18" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG18" s="24"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="25"/>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="45">
-        <v>45369</v>
-      </c>
-      <c r="C19" s="46">
-        <v>32169313</v>
-      </c>
-      <c r="D19" s="16"/>
+      <c r="AH18" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="39">
+        <v>41476416</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -4495,7 +4557,7 @@
       <c r="T19" s="21"/>
       <c r="U19" s="22"/>
       <c r="V19" s="23"/>
-      <c r="W19" s="32"/>
+      <c r="W19" s="23"/>
       <c r="X19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4514,29 +4576,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="38"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
       <c r="AF19" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="25"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="45">
-        <v>44621</v>
-      </c>
-      <c r="C20" s="46">
-        <v>39602991</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="A20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17">
+        <v>37614480</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -4555,7 +4619,7 @@
       <c r="T20" s="21"/>
       <c r="U20" s="22"/>
       <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
+      <c r="W20" s="35"/>
       <c r="X20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4581,22 +4645,26 @@
         <v>0</v>
       </c>
       <c r="AG20" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="25"/>
+        <v>200000</v>
+      </c>
+      <c r="AH20" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI20" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="45">
-        <v>44378</v>
-      </c>
-      <c r="C21" s="46">
-        <v>25008411</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="A21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17">
+        <v>31188307</v>
+      </c>
+      <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -4615,7 +4683,7 @@
       <c r="T21" s="21"/>
       <c r="U21" s="22"/>
       <c r="V21" s="23"/>
-      <c r="W21" s="35"/>
+      <c r="W21" s="23"/>
       <c r="X21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4635,26 +4703,32 @@
         <v>0</v>
       </c>
       <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="AE21" s="38"/>
       <c r="AF21" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="25"/>
+      <c r="AG21" s="24">
+        <v>65000</v>
+      </c>
+      <c r="AH21" s="28">
+        <f t="shared" si="5"/>
+        <v>-65000</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="45">
-        <v>45017</v>
-      </c>
-      <c r="C22" s="46">
-        <v>37614480</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="A22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17">
+        <v>30462348</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -4671,9 +4745,9 @@
       <c r="R22" s="19"/>
       <c r="S22" s="20"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="22"/>
+      <c r="U22" s="30"/>
       <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
+      <c r="W22" s="35"/>
       <c r="X22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4693,26 +4767,30 @@
         <v>0</v>
       </c>
       <c r="AD22" s="31"/>
-      <c r="AE22" s="38"/>
+      <c r="AE22" s="31"/>
       <c r="AF22" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="25"/>
+      <c r="AH22" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="45">
-        <v>43383</v>
-      </c>
-      <c r="C23" s="46">
-        <v>31188307</v>
-      </c>
-      <c r="D23" s="16"/>
+      <c r="A23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17">
+        <v>42210312</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -4729,9 +4807,9 @@
       <c r="R23" s="19"/>
       <c r="S23" s="20"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="30"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="23"/>
-      <c r="W23" s="35"/>
+      <c r="W23" s="23"/>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4756,23 +4834,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="24">
-        <v>65000</v>
-      </c>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="25"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="45">
-        <v>44655</v>
-      </c>
-      <c r="C24" s="46">
-        <v>30462348</v>
-      </c>
-      <c r="D24" s="16"/>
+      <c r="A24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17">
+        <v>28179626</v>
+      </c>
+      <c r="D24" s="18"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -4817,22 +4897,26 @@
         <v>0</v>
       </c>
       <c r="AG24" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="25"/>
+        <v>200000</v>
+      </c>
+      <c r="AH24" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI24" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="45">
-        <v>44652</v>
-      </c>
-      <c r="C25" s="46">
-        <v>42210312</v>
-      </c>
-      <c r="D25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17">
+        <v>29540650</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -4851,7 +4935,7 @@
       <c r="T25" s="21"/>
       <c r="U25" s="22"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
+      <c r="W25" s="35"/>
       <c r="X25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4877,22 +4961,26 @@
         <v>0</v>
       </c>
       <c r="AG25" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AH25" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI25" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="45">
-        <v>45078</v>
-      </c>
-      <c r="C26" s="46">
-        <v>28179626</v>
-      </c>
-      <c r="D26" s="16"/>
+      <c r="A26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17">
+        <v>25008492</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -4909,9 +4997,9 @@
       <c r="R26" s="19"/>
       <c r="S26" s="20"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="22"/>
+      <c r="U26" s="30"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="35"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4937,20 +5025,24 @@
         <v>0</v>
       </c>
       <c r="AG26" s="24"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="25"/>
+      <c r="AH26" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="45">
-        <v>43922</v>
-      </c>
-      <c r="C27" s="46">
-        <v>29540650</v>
-      </c>
-      <c r="D27" s="16"/>
+      <c r="A27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17">
+        <v>41766068</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -4997,20 +5089,24 @@
       <c r="AG27" s="24">
         <v>100000</v>
       </c>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="25"/>
+      <c r="AH27" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI27" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="45">
-        <v>43425</v>
-      </c>
-      <c r="C28" s="46">
-        <v>25008492</v>
-      </c>
-      <c r="D28" s="16"/>
+      <c r="A28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17">
+        <v>37963779</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -5055,20 +5151,24 @@
         <v>0</v>
       </c>
       <c r="AG28" s="24"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="25"/>
+      <c r="AH28" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="45">
-        <v>44835</v>
-      </c>
-      <c r="C29" s="46">
-        <v>41766068</v>
-      </c>
-      <c r="D29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17">
+        <v>38169781</v>
+      </c>
+      <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -5085,7 +5185,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="20"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="30"/>
+      <c r="U29" s="22"/>
       <c r="V29" s="23"/>
       <c r="W29" s="23"/>
       <c r="X29" s="24">
@@ -5106,29 +5206,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="31"/>
+      <c r="AD29" s="25"/>
       <c r="AE29" s="31"/>
       <c r="AF29" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="25"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="45">
-        <v>45047</v>
-      </c>
-      <c r="C30" s="46">
-        <v>42509042</v>
-      </c>
-      <c r="D30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17">
+        <v>35878471</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -5166,27 +5268,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="25"/>
+      <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="25"/>
+      <c r="AG30" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH30" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI30" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="45">
-        <v>43374</v>
-      </c>
-      <c r="C31" s="46">
-        <v>37963779</v>
-      </c>
-      <c r="D31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17">
+        <v>32117629</v>
+      </c>
+      <c r="D31" s="18"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -5203,7 +5311,7 @@
       <c r="R31" s="19"/>
       <c r="S31" s="20"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="22"/>
+      <c r="U31" s="30"/>
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
       <c r="X31" s="24">
@@ -5224,29 +5332,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="31"/>
+      <c r="AD31" s="25"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG31" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AH31" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI31" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="45">
-        <v>45170</v>
-      </c>
-      <c r="C32" s="46">
-        <v>38169781</v>
-      </c>
-      <c r="D32" s="16"/>
+      <c r="A32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17">
+        <v>14642118</v>
+      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -5263,7 +5375,7 @@
       <c r="R32" s="19"/>
       <c r="S32" s="20"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="30"/>
+      <c r="U32" s="22"/>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
       <c r="X32" s="24">
@@ -5284,27 +5396,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="38"/>
       <c r="AF32" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="25"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="45">
-        <v>43584</v>
-      </c>
-      <c r="C33" s="46">
-        <v>35878471</v>
-      </c>
-      <c r="D33" s="16"/>
+      <c r="AG32" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH32" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI32" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17">
+        <v>13870565</v>
+      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -5321,7 +5439,7 @@
       <c r="R33" s="19"/>
       <c r="S33" s="20"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="22"/>
+      <c r="U33" s="30"/>
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
       <c r="X33" s="24">
@@ -5343,28 +5461,30 @@
         <v>0</v>
       </c>
       <c r="AD33" s="31"/>
-      <c r="AE33" s="38"/>
+      <c r="AE33" s="31"/>
       <c r="AF33" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="25"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="45">
-        <v>43374</v>
-      </c>
-      <c r="C34" s="46">
-        <v>32117629</v>
-      </c>
-      <c r="D34" s="16"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="39">
+        <v>35879186</v>
+      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
@@ -5408,23 +5528,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="25"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="45">
-        <v>43435</v>
-      </c>
-      <c r="C35" s="46">
-        <v>14642118</v>
-      </c>
-      <c r="D35" s="16"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17">
+        <v>25428826</v>
+      </c>
+      <c r="D35" s="18"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -5441,7 +5563,7 @@
       <c r="R35" s="19"/>
       <c r="S35" s="20"/>
       <c r="T35" s="21"/>
-      <c r="U35" s="30"/>
+      <c r="U35" s="22"/>
       <c r="V35" s="23"/>
       <c r="W35" s="23"/>
       <c r="X35" s="24">
@@ -5469,22 +5591,26 @@
         <v>0</v>
       </c>
       <c r="AG35" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="25"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="45">
-        <v>42807</v>
-      </c>
-      <c r="C36" s="46">
-        <v>13870565</v>
-      </c>
-      <c r="D36" s="16"/>
+        <v>100000</v>
+      </c>
+      <c r="AH35" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI35" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17">
+        <v>29267701</v>
+      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -5501,7 +5627,7 @@
       <c r="R36" s="19"/>
       <c r="S36" s="20"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="22"/>
+      <c r="U36" s="30"/>
       <c r="V36" s="23"/>
       <c r="W36" s="23"/>
       <c r="X36" s="24">
@@ -5522,27 +5648,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="31"/>
+      <c r="AD36" s="26"/>
       <c r="AE36" s="31"/>
       <c r="AF36" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="25"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="45">
-        <v>42836</v>
-      </c>
-      <c r="C37" s="46">
-        <v>25428826</v>
-      </c>
-      <c r="D37" s="16"/>
+      <c r="AG36" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH36" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI36" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17">
+        <v>30035109</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -5559,7 +5691,7 @@
       <c r="R37" s="19"/>
       <c r="S37" s="20"/>
       <c r="T37" s="21"/>
-      <c r="U37" s="30"/>
+      <c r="U37" s="22"/>
       <c r="V37" s="23"/>
       <c r="W37" s="23"/>
       <c r="X37" s="24">
@@ -5580,29 +5712,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="38"/>
       <c r="AF37" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG37" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="25"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="45">
-        <v>44958</v>
-      </c>
-      <c r="C38" s="46">
-        <v>29267701</v>
-      </c>
-      <c r="D38" s="16"/>
+        <v>100000</v>
+      </c>
+      <c r="AH37" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI37" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17">
+        <v>34127005</v>
+      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -5641,26 +5777,32 @@
         <v>0</v>
       </c>
       <c r="AD38" s="31"/>
-      <c r="AE38" s="38"/>
+      <c r="AE38" s="31"/>
       <c r="AF38" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="25"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="45">
-        <v>44684</v>
-      </c>
-      <c r="C39" s="46">
-        <v>30035109</v>
-      </c>
-      <c r="D39" s="16"/>
+      <c r="AG38" s="24">
+        <v>80000</v>
+      </c>
+      <c r="AH38" s="28">
+        <f t="shared" si="5"/>
+        <v>-80000</v>
+      </c>
+      <c r="AI38" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17">
+        <v>34223713</v>
+      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -5679,7 +5821,7 @@
       <c r="T39" s="21"/>
       <c r="U39" s="22"/>
       <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
+      <c r="W39" s="32"/>
       <c r="X39" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5698,27 +5840,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="31"/>
+      <c r="AD39" s="25"/>
       <c r="AE39" s="31"/>
       <c r="AF39" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG39" s="24"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="25"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="45">
-        <v>45208</v>
-      </c>
-      <c r="C40" s="46">
-        <v>34127005</v>
-      </c>
-      <c r="D40" s="16"/>
+      <c r="AH39" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17">
+        <v>35627514</v>
+      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -5735,9 +5881,9 @@
       <c r="R40" s="19"/>
       <c r="S40" s="20"/>
       <c r="T40" s="21"/>
-      <c r="U40" s="22"/>
+      <c r="U40" s="30"/>
       <c r="V40" s="23"/>
-      <c r="W40" s="32"/>
+      <c r="W40" s="23"/>
       <c r="X40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5756,29 +5902,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="25"/>
+      <c r="AD40" s="26"/>
       <c r="AE40" s="31"/>
       <c r="AF40" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG40" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="25"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="45">
-        <v>45356</v>
-      </c>
-      <c r="C41" s="46">
-        <v>34223713</v>
-      </c>
-      <c r="D41" s="16"/>
+        <v>100000</v>
+      </c>
+      <c r="AH40" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI40" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17">
+        <v>32030418</v>
+      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
@@ -5795,7 +5945,7 @@
       <c r="R41" s="19"/>
       <c r="S41" s="20"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="30"/>
+      <c r="U41" s="22"/>
       <c r="V41" s="23"/>
       <c r="W41" s="23"/>
       <c r="X41" s="24">
@@ -5816,29 +5966,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="26"/>
+      <c r="AD41" s="31"/>
       <c r="AE41" s="31"/>
       <c r="AF41" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG41" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="25"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="45">
-        <v>44685</v>
-      </c>
-      <c r="C42" s="46">
-        <v>35627514</v>
-      </c>
-      <c r="D42" s="16"/>
+        <v>200000</v>
+      </c>
+      <c r="AH41" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI41" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17">
+        <v>25842214</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -5882,23 +6036,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="24">
-        <v>200000</v>
-      </c>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="25"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="45">
-        <v>44501</v>
-      </c>
-      <c r="C43" s="46">
-        <v>32030418</v>
-      </c>
-      <c r="D43" s="16"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17">
+        <v>35878493</v>
+      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -5937,26 +6093,32 @@
         <v>0</v>
       </c>
       <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
+      <c r="AE43" s="38"/>
       <c r="AF43" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="25"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="45">
-        <v>43713</v>
-      </c>
-      <c r="C44" s="46">
-        <v>25842214</v>
-      </c>
-      <c r="D44" s="16"/>
+      <c r="AG43" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH43" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI43" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17">
+        <v>40272312</v>
+      </c>
+      <c r="D44" s="18"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -5994,27 +6156,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="38"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="31"/>
       <c r="AF44" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG44" s="24"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="25"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="45">
-        <v>44748</v>
-      </c>
-      <c r="C45" s="46">
-        <v>35878493</v>
-      </c>
-      <c r="D45" s="16"/>
+      <c r="AH44" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17">
+        <v>37138361</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -6052,27 +6218,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD45" s="26"/>
+      <c r="AD45" s="31"/>
       <c r="AE45" s="31"/>
       <c r="AF45" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG45" s="24"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="25"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C46" s="46">
-        <v>40272312</v>
-      </c>
-      <c r="D46" s="16"/>
+      <c r="AH45" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17">
+        <v>31319126</v>
+      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -6116,21 +6286,30 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="25"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="45">
-        <v>44655</v>
-      </c>
-      <c r="C47" s="46">
-        <v>37138361</v>
-      </c>
-      <c r="D47" s="16"/>
+      <c r="AG46" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17">
+        <v>26425384</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -6175,20 +6354,24 @@
         <v>0</v>
       </c>
       <c r="AG47" s="24"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="25"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="45">
-        <v>43608</v>
-      </c>
-      <c r="C48" s="46">
-        <v>31319126</v>
-      </c>
-      <c r="D48" s="16"/>
+      <c r="AH47" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17">
+        <v>34127902</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -6226,7 +6409,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="31"/>
+      <c r="AD48" s="25"/>
       <c r="AE48" s="31"/>
       <c r="AF48" s="25">
         <f t="shared" si="4"/>
@@ -6235,20 +6418,24 @@
       <c r="AG48" s="24">
         <v>50000</v>
       </c>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="25"/>
+      <c r="AH48" s="28">
+        <f t="shared" si="5"/>
+        <v>-50000</v>
+      </c>
+      <c r="AI48" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="45">
-        <v>44896</v>
-      </c>
-      <c r="C49" s="46">
-        <v>26425384</v>
-      </c>
-      <c r="D49" s="16"/>
+      <c r="A49" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17">
+        <v>31887569</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -6265,9 +6452,9 @@
       <c r="R49" s="19"/>
       <c r="S49" s="20"/>
       <c r="T49" s="21"/>
-      <c r="U49" s="22"/>
+      <c r="U49" s="30"/>
       <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
+      <c r="W49" s="32"/>
       <c r="X49" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6286,27 +6473,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="25"/>
+      <c r="AD49" s="26"/>
       <c r="AE49" s="31"/>
       <c r="AF49" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG49" s="24"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="25"/>
+      <c r="AH49" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="45">
-        <v>42849</v>
-      </c>
-      <c r="C50" s="46">
-        <v>34127902</v>
-      </c>
-      <c r="D50" s="16"/>
+      <c r="A50" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17">
+        <v>23062493</v>
+      </c>
+      <c r="D50" s="18"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -6345,28 +6536,32 @@
         <v>0</v>
       </c>
       <c r="AD50" s="26"/>
-      <c r="AE50" s="31"/>
+      <c r="AE50" s="38"/>
       <c r="AF50" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG50" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH50" s="28"/>
-      <c r="AI50" s="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AH50" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI50" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="45">
-        <v>44621</v>
-      </c>
-      <c r="C51" s="46">
-        <v>31887569</v>
-      </c>
-      <c r="D51" s="16"/>
+      <c r="A51" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17">
+        <v>34746850</v>
+      </c>
+      <c r="D51" s="18"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -6383,9 +6578,9 @@
       <c r="R51" s="19"/>
       <c r="S51" s="20"/>
       <c r="T51" s="21"/>
-      <c r="U51" s="30"/>
+      <c r="U51" s="22"/>
       <c r="V51" s="23"/>
-      <c r="W51" s="32"/>
+      <c r="W51" s="23"/>
       <c r="X51" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6404,27 +6599,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="38"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
       <c r="AF51" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="25"/>
+      <c r="AG51" s="24">
+        <v>200000</v>
+      </c>
+      <c r="AH51" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI51" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="45">
-        <v>40026</v>
-      </c>
-      <c r="C52" s="46">
-        <v>23062493</v>
-      </c>
-      <c r="D52" s="16"/>
+      <c r="A52" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17">
+        <v>39239719</v>
+      </c>
+      <c r="D52" s="18"/>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -6443,7 +6644,7 @@
       <c r="T52" s="21"/>
       <c r="U52" s="22"/>
       <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
+      <c r="W52" s="35"/>
       <c r="X52" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6468,23 +6669,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="25"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="45">
-        <v>45324</v>
-      </c>
-      <c r="C53" s="46">
-        <v>34746850</v>
-      </c>
-      <c r="D53" s="16"/>
+      <c r="A53" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17">
+        <v>31486706</v>
+      </c>
+      <c r="D53" s="18"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -6501,9 +6704,9 @@
       <c r="R53" s="19"/>
       <c r="S53" s="20"/>
       <c r="T53" s="21"/>
-      <c r="U53" s="22"/>
+      <c r="U53" s="21"/>
       <c r="V53" s="23"/>
-      <c r="W53" s="35"/>
+      <c r="W53" s="40"/>
       <c r="X53" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6522,29 +6725,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="31"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="38"/>
       <c r="AF53" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG53" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="25"/>
+        <v>150000</v>
+      </c>
+      <c r="AH53" s="28">
+        <f t="shared" si="5"/>
+        <v>-150000</v>
+      </c>
+      <c r="AI53" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="45">
-        <v>45139</v>
-      </c>
-      <c r="C54" s="46">
-        <v>39239719</v>
-      </c>
-      <c r="D54" s="16"/>
+      <c r="A54" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17">
+        <v>35563541</v>
+      </c>
+      <c r="D54" s="18"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -6561,9 +6768,9 @@
       <c r="R54" s="19"/>
       <c r="S54" s="20"/>
       <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
+      <c r="U54" s="30"/>
       <c r="V54" s="23"/>
-      <c r="W54" s="39"/>
+      <c r="W54" s="23"/>
       <c r="X54" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6582,29 +6789,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="38"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
       <c r="AF54" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="25"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="45">
-        <v>44013</v>
-      </c>
-      <c r="C55" s="46">
-        <v>31486706</v>
-      </c>
-      <c r="D55" s="16"/>
+      <c r="A55" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17">
+        <v>28550679</v>
+      </c>
+      <c r="D55" s="18"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -6651,20 +6860,24 @@
       <c r="AG55" s="24">
         <v>100000</v>
       </c>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="25"/>
+      <c r="AH55" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI55" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="45">
-        <v>44473</v>
-      </c>
-      <c r="C56" s="46">
-        <v>35563541</v>
-      </c>
-      <c r="D56" s="16"/>
+      <c r="A56" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17">
+        <v>42063665</v>
+      </c>
+      <c r="D56" s="18"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -6681,7 +6894,7 @@
       <c r="R56" s="19"/>
       <c r="S56" s="20"/>
       <c r="T56" s="21"/>
-      <c r="U56" s="30"/>
+      <c r="U56" s="22"/>
       <c r="V56" s="23"/>
       <c r="W56" s="23"/>
       <c r="X56" s="24">
@@ -6709,20 +6922,24 @@
         <v>0</v>
       </c>
       <c r="AG56" s="24"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="25"/>
+      <c r="AH56" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="45">
-        <v>45170</v>
-      </c>
-      <c r="C57" s="46">
-        <v>28550679</v>
-      </c>
-      <c r="D57" s="16"/>
+      <c r="A57" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17">
+        <v>32664926</v>
+      </c>
+      <c r="D57" s="18"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -6741,7 +6958,7 @@
       <c r="T57" s="21"/>
       <c r="U57" s="22"/>
       <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
+      <c r="W57" s="35"/>
       <c r="X57" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6760,29 +6977,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD57" s="31"/>
+      <c r="AD57" s="25"/>
       <c r="AE57" s="31"/>
       <c r="AF57" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG57" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="25"/>
+        <v>200000</v>
+      </c>
+      <c r="AH57" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI57" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="45">
-        <v>44564</v>
-      </c>
-      <c r="C58" s="46">
-        <v>42063665</v>
-      </c>
-      <c r="D58" s="16"/>
+      <c r="A58" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17">
+        <v>29213089</v>
+      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -6820,29 +7041,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD58" s="25"/>
+      <c r="AD58" s="31"/>
       <c r="AE58" s="31"/>
       <c r="AF58" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG58" s="24">
-        <v>30000</v>
-      </c>
-      <c r="AH58" s="28"/>
-      <c r="AI58" s="25"/>
+      <c r="AG58" s="24"/>
+      <c r="AH58" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="45">
-        <v>44501</v>
-      </c>
-      <c r="C59" s="46">
-        <v>32664926</v>
-      </c>
-      <c r="D59" s="16"/>
+      <c r="A59" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17">
+        <v>23677794</v>
+      </c>
+      <c r="D59" s="18"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -6861,7 +7084,7 @@
       <c r="T59" s="21"/>
       <c r="U59" s="22"/>
       <c r="V59" s="23"/>
-      <c r="W59" s="35"/>
+      <c r="W59" s="23"/>
       <c r="X59" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6880,7 +7103,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD59" s="31"/>
+      <c r="AD59" s="41"/>
       <c r="AE59" s="31"/>
       <c r="AF59" s="25">
         <f t="shared" si="4"/>
@@ -6889,20 +7112,24 @@
       <c r="AG59" s="24">
         <v>50000</v>
       </c>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="25"/>
+      <c r="AH59" s="28">
+        <f t="shared" si="5"/>
+        <v>-50000</v>
+      </c>
+      <c r="AI59" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C60" s="46">
-        <v>29213089</v>
-      </c>
-      <c r="D60" s="16"/>
+      <c r="A60" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17">
+        <v>40972534</v>
+      </c>
+      <c r="D60" s="18"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -6940,27 +7167,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD60" s="40"/>
+      <c r="AD60" s="31"/>
       <c r="AE60" s="31"/>
       <c r="AF60" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="25"/>
+      <c r="AG60" s="24">
+        <v>200000</v>
+      </c>
+      <c r="AH60" s="28">
+        <f t="shared" si="5"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI60" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="45">
-        <v>42646</v>
-      </c>
-      <c r="C61" s="46">
-        <v>23677794</v>
-      </c>
-      <c r="D61" s="16"/>
+      <c r="A61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17">
+        <v>41364071</v>
+      </c>
+      <c r="D61" s="18"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -6978,8 +7211,8 @@
       <c r="S61" s="20"/>
       <c r="T61" s="21"/>
       <c r="U61" s="22"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
       <c r="X61" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6999,28 +7232,32 @@
         <v>0</v>
       </c>
       <c r="AD61" s="31"/>
-      <c r="AE61" s="31"/>
+      <c r="AE61" s="38"/>
       <c r="AF61" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG61" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="25"/>
+        <v>20000</v>
+      </c>
+      <c r="AH61" s="28">
+        <f t="shared" si="5"/>
+        <v>-20000</v>
+      </c>
+      <c r="AI61" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="45">
-        <v>45231</v>
-      </c>
-      <c r="C62" s="46">
-        <v>40972534</v>
-      </c>
-      <c r="D62" s="16"/>
+      <c r="A62" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17">
+        <v>23259320</v>
+      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -7038,7 +7275,7 @@
       <c r="S62" s="20"/>
       <c r="T62" s="21"/>
       <c r="U62" s="22"/>
-      <c r="V62" s="35"/>
+      <c r="V62" s="23"/>
       <c r="W62" s="35"/>
       <c r="X62" s="24">
         <f t="shared" si="0"/>
@@ -7058,27 +7295,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="38"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="31"/>
       <c r="AF62" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG62" s="24"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="25"/>
+      <c r="AH62" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C63" s="46">
-        <v>41364071</v>
-      </c>
-      <c r="D63" s="16"/>
+      <c r="A63" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17">
+        <v>33231935</v>
+      </c>
+      <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
@@ -7095,9 +7336,9 @@
       <c r="R63" s="19"/>
       <c r="S63" s="20"/>
       <c r="T63" s="21"/>
-      <c r="U63" s="22"/>
+      <c r="U63" s="30"/>
       <c r="V63" s="23"/>
-      <c r="W63" s="35"/>
+      <c r="W63" s="23"/>
       <c r="X63" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7116,29 +7357,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD63" s="25"/>
+      <c r="AD63" s="31"/>
       <c r="AE63" s="31"/>
       <c r="AF63" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG63" s="24">
-        <v>20000</v>
-      </c>
-      <c r="AH63" s="28"/>
-      <c r="AI63" s="25"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="45">
-        <v>42908</v>
-      </c>
-      <c r="C64" s="46">
-        <v>23259320</v>
-      </c>
-      <c r="D64" s="16"/>
+      <c r="A64" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17">
+        <v>26496747</v>
+      </c>
+      <c r="D64" s="18"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -7155,9 +7398,9 @@
       <c r="R64" s="19"/>
       <c r="S64" s="20"/>
       <c r="T64" s="21"/>
-      <c r="U64" s="30"/>
+      <c r="U64" s="22"/>
       <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
+      <c r="W64" s="35"/>
       <c r="X64" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7182,21 +7425,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="25"/>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="45">
-        <v>45385</v>
-      </c>
-      <c r="C65" s="46">
-        <v>33231935</v>
-      </c>
-      <c r="D65" s="16"/>
+      <c r="AG64" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH64" s="28">
+        <f t="shared" si="5"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI64" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17">
+        <v>25151996</v>
+      </c>
+      <c r="D65" s="18"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -7215,7 +7464,7 @@
       <c r="T65" s="21"/>
       <c r="U65" s="22"/>
       <c r="V65" s="23"/>
-      <c r="W65" s="35"/>
+      <c r="W65" s="32"/>
       <c r="X65" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7234,27 +7483,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD65" s="31"/>
-      <c r="AE65" s="31"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="38"/>
       <c r="AF65" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="28"/>
-      <c r="AI65" s="25"/>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="45">
-        <v>43160</v>
-      </c>
-      <c r="C66" s="46">
-        <v>26496747</v>
-      </c>
-      <c r="D66" s="16"/>
+      <c r="AG65" s="24">
+        <v>150000</v>
+      </c>
+      <c r="AH65" s="28">
+        <f t="shared" si="5"/>
+        <v>-150000</v>
+      </c>
+      <c r="AI65" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17">
+        <v>28804165</v>
+      </c>
+      <c r="D66" s="18"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -7273,48 +7528,50 @@
       <c r="T66" s="21"/>
       <c r="U66" s="22"/>
       <c r="V66" s="23"/>
-      <c r="W66" s="32"/>
+      <c r="W66" s="23"/>
       <c r="X66" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X66:X94" si="7">((E66/200)*(1.5*V66))</f>
         <v>0</v>
       </c>
       <c r="Y66" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Y66:Y94" si="8">((E66/200)*(2*W66))</f>
         <v>0</v>
       </c>
       <c r="Z66" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z66:Z94" si="9">X66+Y66</f>
         <v>0</v>
       </c>
       <c r="AA66" s="26"/>
       <c r="AB66" s="26"/>
       <c r="AC66" s="26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="38"/>
+        <f t="shared" ref="AC66:AC94" si="10">IF(AB66-(AA66+Z66)&gt;=0,(AB66-(AA66+Z66)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="31"/>
+      <c r="AE66" s="31"/>
       <c r="AF66" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG66" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH66" s="28"/>
-      <c r="AI66" s="25"/>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="45">
-        <v>43374</v>
-      </c>
-      <c r="C67" s="46">
-        <v>25151996</v>
-      </c>
-      <c r="D67" s="16"/>
+        <f t="shared" ref="AF66:AF94" si="11">(R66+S66+T66+U66)-(AC66+AD66+AE66)</f>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="28">
+        <f t="shared" ref="AH66:AH94" si="12">AF66-AG66</f>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="25">
+        <f t="shared" ref="AI66:AI94" si="13">IF((Z66+AA66-AB66)&gt;=0,(Z66+AA66-AB66),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17">
+        <v>42507189</v>
+      </c>
+      <c r="D67" s="18"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -7331,50 +7588,52 @@
       <c r="R67" s="19"/>
       <c r="S67" s="20"/>
       <c r="T67" s="21"/>
-      <c r="U67" s="22"/>
+      <c r="U67" s="30"/>
       <c r="V67" s="23"/>
       <c r="W67" s="23"/>
       <c r="X67" s="24">
-        <f t="shared" ref="X67:X95" si="5">((E67/200)*(1.5*V67))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y67" s="24">
-        <f t="shared" ref="Y67:Y95" si="6">((E67/200)*(2*W67))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z67" s="25">
-        <f t="shared" ref="Z67:Z95" si="7">X67+Y67</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA67" s="26"/>
       <c r="AB67" s="26"/>
       <c r="AC67" s="26">
-        <f t="shared" ref="AC67:AC95" si="8">IF(AB67-(AA67+Z67)&gt;=0,(AB67-(AA67+Z67)),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD67" s="31"/>
       <c r="AE67" s="31"/>
       <c r="AF67" s="25">
-        <f t="shared" ref="AF67:AF95" si="9">(R67+S67+T67+U67)-(AC67+AD67+AE67)</f>
-        <v>0</v>
-      </c>
-      <c r="AG67" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH67" s="28"/>
-      <c r="AI67" s="25"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="45">
-        <v>44470</v>
-      </c>
-      <c r="C68" s="46">
-        <v>28804165</v>
-      </c>
-      <c r="D68" s="16"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI67" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17">
+        <v>38205805</v>
+      </c>
+      <c r="D68" s="18"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -7391,48 +7650,52 @@
       <c r="R68" s="19"/>
       <c r="S68" s="20"/>
       <c r="T68" s="21"/>
-      <c r="U68" s="30"/>
+      <c r="U68" s="22"/>
       <c r="V68" s="23"/>
       <c r="W68" s="23"/>
       <c r="X68" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y68" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z68" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA68" s="26"/>
       <c r="AB68" s="26"/>
       <c r="AC68" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD68" s="31"/>
       <c r="AE68" s="31"/>
       <c r="AF68" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG68" s="24"/>
-      <c r="AH68" s="28"/>
-      <c r="AI68" s="25"/>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="45">
-        <v>43649</v>
-      </c>
-      <c r="C69" s="46">
-        <v>38205805</v>
-      </c>
-      <c r="D69" s="16"/>
+      <c r="AH68" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17">
+        <v>29935823</v>
+      </c>
+      <c r="D69" s="18"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -7451,48 +7714,52 @@
       <c r="T69" s="21"/>
       <c r="U69" s="22"/>
       <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
+      <c r="W69" s="35"/>
       <c r="X69" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y69" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z69" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA69" s="26"/>
       <c r="AB69" s="26"/>
       <c r="AC69" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD69" s="31"/>
       <c r="AE69" s="31"/>
       <c r="AF69" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG69" s="24">
-        <v>30000</v>
-      </c>
-      <c r="AH69" s="28"/>
-      <c r="AI69" s="25"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C70" s="46">
-        <v>29935823</v>
-      </c>
-      <c r="D70" s="16"/>
+        <v>100000</v>
+      </c>
+      <c r="AH69" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI69" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17">
+        <v>17342305</v>
+      </c>
+      <c r="D70" s="18"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -7511,48 +7778,50 @@
       <c r="T70" s="21"/>
       <c r="U70" s="22"/>
       <c r="V70" s="23"/>
-      <c r="W70" s="35"/>
+      <c r="W70" s="32"/>
       <c r="X70" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y70" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z70" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA70" s="26"/>
       <c r="AB70" s="26"/>
       <c r="AC70" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD70" s="31"/>
       <c r="AE70" s="31"/>
       <c r="AF70" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG70" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH70" s="28"/>
-      <c r="AI70" s="25"/>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="45">
-        <v>44873</v>
-      </c>
-      <c r="C71" s="46">
-        <v>17342305</v>
-      </c>
-      <c r="D71" s="16"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17">
+        <v>32169014</v>
+      </c>
+      <c r="D71" s="18"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -7569,48 +7838,52 @@
       <c r="R71" s="19"/>
       <c r="S71" s="20"/>
       <c r="T71" s="21"/>
-      <c r="U71" s="22"/>
+      <c r="U71" s="30"/>
       <c r="V71" s="23"/>
-      <c r="W71" s="32"/>
+      <c r="W71" s="23"/>
       <c r="X71" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y71" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z71" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA71" s="26"/>
       <c r="AB71" s="26"/>
       <c r="AC71" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD71" s="31"/>
       <c r="AE71" s="31"/>
       <c r="AF71" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG71" s="24"/>
-      <c r="AH71" s="28"/>
-      <c r="AI71" s="25"/>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="45">
-        <v>45357</v>
-      </c>
-      <c r="C72" s="46">
-        <v>32169014</v>
-      </c>
-      <c r="D72" s="16"/>
+      <c r="AH71" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI71" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A72" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="43">
+        <v>18429204</v>
+      </c>
+      <c r="D72" s="18"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -7628,47 +7901,51 @@
       <c r="S72" s="20"/>
       <c r="T72" s="21"/>
       <c r="U72" s="30"/>
-      <c r="V72" s="23"/>
+      <c r="V72" s="35"/>
       <c r="W72" s="23"/>
       <c r="X72" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y72" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z72" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA72" s="26"/>
       <c r="AB72" s="26"/>
       <c r="AC72" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD72" s="31"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="26"/>
       <c r="AE72" s="31"/>
       <c r="AF72" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG72" s="24"/>
-      <c r="AH72" s="28"/>
-      <c r="AI72" s="25"/>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="45">
-        <v>45293</v>
-      </c>
-      <c r="C73" s="46">
-        <v>34642810</v>
-      </c>
-      <c r="D73" s="16"/>
+      <c r="AH72" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17">
+        <v>32193970</v>
+      </c>
+      <c r="D73" s="18"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -7685,48 +7962,54 @@
       <c r="R73" s="19"/>
       <c r="S73" s="20"/>
       <c r="T73" s="21"/>
-      <c r="U73" s="30"/>
+      <c r="U73" s="22"/>
       <c r="V73" s="35"/>
-      <c r="W73" s="23"/>
+      <c r="W73" s="35"/>
       <c r="X73" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y73" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z73" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA73" s="26"/>
       <c r="AB73" s="26"/>
       <c r="AC73" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="31"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="38"/>
       <c r="AF73" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="28"/>
-      <c r="AI73" s="25"/>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A74" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="45">
-        <v>44958</v>
-      </c>
-      <c r="C74" s="46">
-        <v>18429204</v>
-      </c>
-      <c r="D74" s="16"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="24">
+        <v>200000</v>
+      </c>
+      <c r="AH73" s="28">
+        <f t="shared" si="12"/>
+        <v>-200000</v>
+      </c>
+      <c r="AI73" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17">
+        <v>26155465</v>
+      </c>
+      <c r="D74" s="18"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -7743,48 +8026,52 @@
       <c r="R74" s="19"/>
       <c r="S74" s="20"/>
       <c r="T74" s="21"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
       <c r="X74" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y74" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z74" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA74" s="26"/>
       <c r="AB74" s="26"/>
       <c r="AC74" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD74" s="25"/>
-      <c r="AE74" s="38"/>
+      <c r="AE74" s="31"/>
       <c r="AF74" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG74" s="24"/>
-      <c r="AH74" s="28"/>
-      <c r="AI74" s="25"/>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A75" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="45">
-        <v>44683</v>
-      </c>
-      <c r="C75" s="46">
-        <v>32193970</v>
-      </c>
-      <c r="D75" s="16"/>
+      <c r="AH74" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A75" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17">
+        <v>36788186</v>
+      </c>
+      <c r="D75" s="18"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -7805,46 +8092,53 @@
       <c r="V75" s="23"/>
       <c r="W75" s="23"/>
       <c r="X75" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y75" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z75" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA75" s="26"/>
       <c r="AB75" s="26"/>
       <c r="AC75" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="25"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="31"/>
       <c r="AE75" s="31"/>
       <c r="AF75" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG75" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH75" s="28"/>
-      <c r="AI75" s="25"/>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C76" s="46">
-        <v>36788186</v>
-      </c>
-      <c r="D76" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17">
+        <v>32767013</v>
+      </c>
+      <c r="D76" s="18"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -7861,50 +8155,54 @@
       <c r="R76" s="19"/>
       <c r="S76" s="20"/>
       <c r="T76" s="21"/>
-      <c r="U76" s="30"/>
+      <c r="U76" s="22"/>
       <c r="V76" s="23"/>
-      <c r="W76" s="23"/>
+      <c r="W76" s="35"/>
       <c r="X76" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y76" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z76" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA76" s="26"/>
       <c r="AB76" s="26"/>
       <c r="AC76" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD76" s="31"/>
       <c r="AE76" s="31"/>
       <c r="AF76" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG76" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH76" s="28"/>
-      <c r="AI76" s="25"/>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="45">
-        <v>43837</v>
-      </c>
-      <c r="C77" s="46">
-        <v>32767013</v>
-      </c>
-      <c r="D77" s="16"/>
+        <v>150000</v>
+      </c>
+      <c r="AH76" s="28">
+        <f t="shared" si="12"/>
+        <v>-150000</v>
+      </c>
+      <c r="AI76" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17">
+        <v>35842489</v>
+      </c>
+      <c r="D77" s="18"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -7921,50 +8219,52 @@
       <c r="R77" s="19"/>
       <c r="S77" s="20"/>
       <c r="T77" s="21"/>
-      <c r="U77" s="22"/>
+      <c r="U77" s="30"/>
       <c r="V77" s="23"/>
-      <c r="W77" s="35"/>
+      <c r="W77" s="23"/>
       <c r="X77" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y77" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z77" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA77" s="26"/>
       <c r="AB77" s="26"/>
       <c r="AC77" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD77" s="31"/>
       <c r="AE77" s="31"/>
       <c r="AF77" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG77" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH77" s="28"/>
-      <c r="AI77" s="25"/>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="45">
-        <v>44390</v>
-      </c>
-      <c r="C78" s="46">
-        <v>35842489</v>
-      </c>
-      <c r="D78" s="16"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI77" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17">
+        <v>35032473</v>
+      </c>
+      <c r="D78" s="18"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -7981,50 +8281,52 @@
       <c r="R78" s="19"/>
       <c r="S78" s="20"/>
       <c r="T78" s="21"/>
-      <c r="U78" s="30"/>
+      <c r="U78" s="22"/>
       <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
+      <c r="W78" s="35"/>
       <c r="X78" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y78" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z78" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA78" s="26"/>
       <c r="AB78" s="26"/>
       <c r="AC78" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD78" s="31"/>
       <c r="AE78" s="31"/>
       <c r="AF78" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG78" s="24">
-        <v>30000</v>
-      </c>
-      <c r="AH78" s="28"/>
-      <c r="AI78" s="25"/>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A79" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="45">
-        <v>45183</v>
-      </c>
-      <c r="C79" s="46">
-        <v>35032473</v>
-      </c>
-      <c r="D79" s="16"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI78" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17">
+        <v>18886437</v>
+      </c>
+      <c r="D79" s="18"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -8041,48 +8343,52 @@
       <c r="R79" s="19"/>
       <c r="S79" s="20"/>
       <c r="T79" s="21"/>
-      <c r="U79" s="22"/>
+      <c r="U79" s="30"/>
       <c r="V79" s="23"/>
       <c r="W79" s="35"/>
       <c r="X79" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y79" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z79" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA79" s="26"/>
       <c r="AB79" s="26"/>
       <c r="AC79" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="31"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD79" s="26"/>
       <c r="AE79" s="31"/>
       <c r="AF79" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG79" s="24"/>
-      <c r="AH79" s="28"/>
-      <c r="AI79" s="25"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80" s="45">
-        <v>45356</v>
-      </c>
-      <c r="C80" s="46">
-        <v>18886437</v>
-      </c>
-      <c r="D80" s="16"/>
+      <c r="AH79" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI79" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17">
+        <v>27063564</v>
+      </c>
+      <c r="D80" s="18"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -8101,46 +8407,52 @@
       <c r="T80" s="21"/>
       <c r="U80" s="30"/>
       <c r="V80" s="23"/>
-      <c r="W80" s="35"/>
+      <c r="W80" s="23"/>
       <c r="X80" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y80" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z80" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA80" s="26"/>
       <c r="AB80" s="26"/>
       <c r="AC80" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD80" s="26"/>
       <c r="AE80" s="31"/>
       <c r="AF80" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="28"/>
-      <c r="AI80" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH80" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI80" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A81" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" s="45">
-        <v>42248</v>
-      </c>
-      <c r="C81" s="46">
-        <v>27063564</v>
-      </c>
-      <c r="D81" s="16"/>
+      <c r="A81" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17">
+        <v>33930200</v>
+      </c>
+      <c r="D81" s="18"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -8161,46 +8473,50 @@
       <c r="V81" s="23"/>
       <c r="W81" s="23"/>
       <c r="X81" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y81" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z81" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA81" s="26"/>
       <c r="AB81" s="26"/>
       <c r="AC81" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="26"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD81" s="25"/>
       <c r="AE81" s="31"/>
       <c r="AF81" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG81" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH81" s="28"/>
-      <c r="AI81" s="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AH81" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI81" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="45">
-        <v>44440</v>
-      </c>
-      <c r="C82" s="46">
-        <v>33930200</v>
-      </c>
-      <c r="D82" s="16"/>
+      <c r="A82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17">
+        <v>29935859</v>
+      </c>
+      <c r="D82" s="18"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -8221,46 +8537,48 @@
       <c r="V82" s="23"/>
       <c r="W82" s="23"/>
       <c r="X82" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y82" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z82" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA82" s="26"/>
       <c r="AB82" s="26"/>
       <c r="AC82" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD82" s="25"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD82" s="31"/>
       <c r="AE82" s="31"/>
       <c r="AF82" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG82" s="24">
-        <v>50000</v>
-      </c>
-      <c r="AH82" s="28"/>
-      <c r="AI82" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A83" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="45">
-        <v>41671</v>
-      </c>
-      <c r="C83" s="46">
-        <v>29935859</v>
-      </c>
-      <c r="D83" s="16"/>
+      <c r="A83" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17">
+        <v>38205853</v>
+      </c>
+      <c r="D83" s="18"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
@@ -8281,44 +8599,48 @@
       <c r="V83" s="23"/>
       <c r="W83" s="23"/>
       <c r="X83" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y83" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z83" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA83" s="26"/>
       <c r="AB83" s="26"/>
       <c r="AC83" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD83" s="31"/>
-      <c r="AE83" s="31"/>
+      <c r="AE83" s="38"/>
       <c r="AF83" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG83" s="24"/>
-      <c r="AH83" s="28"/>
-      <c r="AI83" s="25"/>
+      <c r="AH83" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI83" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A84" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="45">
-        <v>44473</v>
-      </c>
-      <c r="C84" s="46">
-        <v>38205853</v>
-      </c>
-      <c r="D84" s="16"/>
+      <c r="A84" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="43">
+        <v>30053322</v>
+      </c>
+      <c r="D84" s="18"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
@@ -8335,48 +8657,52 @@
       <c r="R84" s="19"/>
       <c r="S84" s="20"/>
       <c r="T84" s="21"/>
-      <c r="U84" s="30"/>
+      <c r="U84" s="22"/>
       <c r="V84" s="23"/>
       <c r="W84" s="23"/>
       <c r="X84" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y84" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z84" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA84" s="26"/>
       <c r="AB84" s="26"/>
       <c r="AC84" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD84" s="31"/>
-      <c r="AE84" s="38"/>
+      <c r="AE84" s="31"/>
       <c r="AF84" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG84" s="24"/>
-      <c r="AH84" s="28"/>
-      <c r="AI84" s="25"/>
+      <c r="AH84" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI84" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A85" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="45">
-        <v>44743</v>
-      </c>
-      <c r="C85" s="46">
-        <v>30053322</v>
-      </c>
-      <c r="D85" s="16"/>
+      <c r="A85" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17">
+        <v>26922846</v>
+      </c>
+      <c r="D85" s="18"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
@@ -8393,50 +8719,54 @@
       <c r="R85" s="19"/>
       <c r="S85" s="20"/>
       <c r="T85" s="21"/>
-      <c r="U85" s="22"/>
+      <c r="U85" s="30"/>
       <c r="V85" s="23"/>
       <c r="W85" s="23"/>
       <c r="X85" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y85" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z85" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA85" s="26"/>
       <c r="AB85" s="26"/>
       <c r="AC85" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD85" s="31"/>
       <c r="AE85" s="31"/>
       <c r="AF85" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG85" s="24">
-        <v>150000</v>
-      </c>
-      <c r="AH85" s="28"/>
-      <c r="AI85" s="25"/>
+        <v>100000</v>
+      </c>
+      <c r="AH85" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI85" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A86" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="45">
-        <v>44915</v>
-      </c>
-      <c r="C86" s="46">
-        <v>26922846</v>
-      </c>
-      <c r="D86" s="16"/>
+      <c r="A86" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17">
+        <v>35842332</v>
+      </c>
+      <c r="D86" s="18"/>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
@@ -8453,50 +8783,52 @@
       <c r="R86" s="19"/>
       <c r="S86" s="20"/>
       <c r="T86" s="21"/>
-      <c r="U86" s="30"/>
+      <c r="U86" s="22"/>
       <c r="V86" s="23"/>
       <c r="W86" s="23"/>
       <c r="X86" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y86" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z86" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA86" s="26"/>
       <c r="AB86" s="26"/>
       <c r="AC86" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD86" s="31"/>
       <c r="AE86" s="31"/>
       <c r="AF86" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG86" s="24">
-        <v>80000</v>
-      </c>
-      <c r="AH86" s="28"/>
-      <c r="AI86" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="24"/>
+      <c r="AH86" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI86" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A87" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="45">
-        <v>44743</v>
-      </c>
-      <c r="C87" s="46">
-        <v>35842332</v>
-      </c>
-      <c r="D87" s="16"/>
+      <c r="A87" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17">
+        <v>41364055</v>
+      </c>
+      <c r="D87" s="18"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
@@ -8517,44 +8849,48 @@
       <c r="V87" s="23"/>
       <c r="W87" s="23"/>
       <c r="X87" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y87" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z87" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA87" s="26"/>
       <c r="AB87" s="26"/>
       <c r="AC87" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD87" s="31"/>
       <c r="AE87" s="31"/>
       <c r="AF87" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG87" s="24"/>
-      <c r="AH87" s="28"/>
-      <c r="AI87" s="25"/>
+      <c r="AH87" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI87" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A88" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" s="45">
-        <v>45017</v>
-      </c>
-      <c r="C88" s="46">
-        <v>41364055</v>
-      </c>
-      <c r="D88" s="16"/>
+      <c r="A88" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17">
+        <v>29880977</v>
+      </c>
+      <c r="D88" s="18"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
@@ -8572,47 +8908,53 @@
       <c r="S88" s="20"/>
       <c r="T88" s="21"/>
       <c r="U88" s="22"/>
-      <c r="V88" s="23"/>
-      <c r="W88" s="23"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
       <c r="X88" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y88" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z88" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
       <c r="AC88" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="31"/>
-      <c r="AE88" s="31"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="38"/>
       <c r="AF88" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="24">
+        <v>100000</v>
+      </c>
+      <c r="AH88" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI88" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A89" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="45">
-        <v>45236</v>
-      </c>
-      <c r="C89" s="46">
-        <v>29880977</v>
-      </c>
-      <c r="D89" s="16"/>
+      <c r="A89" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17">
+        <v>32474193</v>
+      </c>
+      <c r="D89" s="18"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
@@ -8630,47 +8972,51 @@
       <c r="S89" s="20"/>
       <c r="T89" s="21"/>
       <c r="U89" s="22"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="32"/>
       <c r="X89" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y89" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z89" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
       <c r="AC89" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="25"/>
-      <c r="AE89" s="38"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD89" s="26"/>
+      <c r="AE89" s="31"/>
       <c r="AF89" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG89" s="24"/>
-      <c r="AH89" s="28"/>
-      <c r="AI89" s="25"/>
+      <c r="AH89" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI89" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A90" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="45">
-        <v>45170</v>
-      </c>
-      <c r="C90" s="46">
-        <v>32474193</v>
-      </c>
-      <c r="D90" s="16"/>
+      <c r="A90" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17">
+        <v>27063598</v>
+      </c>
+      <c r="D90" s="18"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
@@ -8687,50 +9033,54 @@
       <c r="R90" s="19"/>
       <c r="S90" s="20"/>
       <c r="T90" s="21"/>
-      <c r="U90" s="22"/>
+      <c r="U90" s="30"/>
       <c r="V90" s="23"/>
-      <c r="W90" s="32"/>
+      <c r="W90" s="23"/>
       <c r="X90" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y90" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z90" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
       <c r="AC90" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD90" s="26"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD90" s="25"/>
       <c r="AE90" s="31"/>
       <c r="AF90" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG90" s="24">
         <v>100000</v>
       </c>
-      <c r="AH90" s="28"/>
-      <c r="AI90" s="25"/>
+      <c r="AH90" s="28">
+        <f t="shared" si="12"/>
+        <v>-100000</v>
+      </c>
+      <c r="AI90" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A91" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="45">
-        <v>43640</v>
-      </c>
-      <c r="C91" s="46">
-        <v>27063598</v>
-      </c>
-      <c r="D91" s="16"/>
+      <c r="A91" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17">
+        <v>35516461</v>
+      </c>
+      <c r="D91" s="18"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
@@ -8751,46 +9101,50 @@
       <c r="V91" s="23"/>
       <c r="W91" s="23"/>
       <c r="X91" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y91" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z91" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA91" s="26"/>
       <c r="AB91" s="26"/>
       <c r="AC91" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD91" s="25"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD91" s="31"/>
       <c r="AE91" s="31"/>
       <c r="AF91" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG91" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH91" s="28"/>
-      <c r="AI91" s="25"/>
+        <v>150000</v>
+      </c>
+      <c r="AH91" s="28">
+        <f t="shared" si="12"/>
+        <v>-150000</v>
+      </c>
+      <c r="AI91" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A92" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="45">
-        <v>44896</v>
-      </c>
-      <c r="C92" s="46">
-        <v>35516461</v>
-      </c>
-      <c r="D92" s="16"/>
+      <c r="A92" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17">
+        <v>34642808</v>
+      </c>
+      <c r="D92" s="18"/>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
@@ -8808,49 +9162,51 @@
       <c r="S92" s="20"/>
       <c r="T92" s="21"/>
       <c r="U92" s="30"/>
-      <c r="V92" s="23"/>
-      <c r="W92" s="23"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
       <c r="X92" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y92" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z92" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA92" s="26"/>
       <c r="AB92" s="26"/>
       <c r="AC92" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD92" s="31"/>
       <c r="AE92" s="31"/>
       <c r="AF92" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG92" s="24">
-        <v>100000</v>
-      </c>
-      <c r="AH92" s="28"/>
-      <c r="AI92" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI92" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A93" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="45">
-        <v>44683</v>
-      </c>
-      <c r="C93" s="46">
-        <v>34642808</v>
-      </c>
-      <c r="D93" s="16"/>
+      <c r="A93" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17">
+        <v>38169847</v>
+      </c>
+      <c r="D93" s="18"/>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
@@ -8867,48 +9223,50 @@
       <c r="R93" s="19"/>
       <c r="S93" s="20"/>
       <c r="T93" s="21"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
       <c r="X93" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y93" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z93" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA93" s="26"/>
       <c r="AB93" s="26"/>
       <c r="AC93" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD93" s="31"/>
       <c r="AE93" s="31"/>
       <c r="AF93" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG93" s="24"/>
-      <c r="AH93" s="28"/>
-      <c r="AI93" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="24">
+        <v>80000</v>
+      </c>
+      <c r="AH93" s="28">
+        <f t="shared" si="12"/>
+        <v>-80000</v>
+      </c>
+      <c r="AI93" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A94" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" s="45">
-        <v>45208</v>
-      </c>
-      <c r="C94" s="46">
-        <v>38169847</v>
-      </c>
-      <c r="D94" s="16"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
@@ -8929,178 +9287,66 @@
       <c r="V94" s="23"/>
       <c r="W94" s="23"/>
       <c r="X94" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y94" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z94" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA94" s="26"/>
       <c r="AB94" s="26"/>
       <c r="AC94" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD94" s="31"/>
       <c r="AE94" s="31"/>
       <c r="AF94" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG94" s="24"/>
-      <c r="AH94" s="28"/>
-      <c r="AI94" s="25"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH94" s="28" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI94" s="25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="20"/>
-      <c r="T95" s="21"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="23"/>
-      <c r="W95" s="23"/>
-      <c r="X95" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="31"/>
-      <c r="AE95" s="31"/>
-      <c r="AF95" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG95" s="24"/>
-      <c r="AH95" s="28"/>
-      <c r="AI95" s="25"/>
+      <c r="W95" s="29"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="W96" s="29"/>
-      <c r="AG96" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="S97" s="42"/>
-      <c r="V97" s="42"/>
-      <c r="W97" s="42"/>
-      <c r="X97" s="42"/>
-      <c r="Y97" s="42"/>
-      <c r="Z97" s="42"/>
-      <c r="AA97" s="42"/>
-      <c r="AB97" s="42"/>
-      <c r="AC97" s="42"/>
-      <c r="AD97" s="42"/>
-      <c r="AE97" s="42"/>
-      <c r="AF97" s="42"/>
-      <c r="AG97" s="42"/>
-      <c r="AH97" s="42"/>
-      <c r="AI97" s="42"/>
-    </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="29"/>
-      <c r="AE98" s="29"/>
-      <c r="AF98" s="29"/>
-      <c r="AG98" s="29"/>
-      <c r="AI98" s="29"/>
-    </row>
-    <row r="99" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="29"/>
-      <c r="AB99" s="29"/>
-      <c r="AC99" s="29"/>
-      <c r="AD99" s="29"/>
-      <c r="AE99" s="29"/>
-      <c r="AF99" s="29"/>
-      <c r="AG99" s="29"/>
-      <c r="AI99" s="29"/>
-    </row>
+      <c r="S96" s="48"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="48"/>
+      <c r="AB96" s="48"/>
+      <c r="AC96" s="48"/>
+      <c r="AD96" s="48"/>
+      <c r="AE96" s="48"/>
+      <c r="AF96" s="48"/>
+      <c r="AG96" s="48"/>
+      <c r="AH96" s="48"/>
+      <c r="AI96" s="48"/>
+    </row>
+    <row r="97" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AI95" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AI94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>